--- a/Recoleccion.xlsx
+++ b/Recoleccion.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natasha GO\Desktop\Granja\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B610C-E21A-4F00-AF40-D4E13D8587F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recoleccion Metricas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Bodega origen</t>
   </si>
@@ -37,9 +43,6 @@
     <t>Periodo std</t>
   </si>
   <si>
-    <t>Bodega destino</t>
-  </si>
-  <si>
     <t>Cantidad min</t>
   </si>
   <si>
@@ -77,31 +80,13 @@
   </si>
   <si>
     <t>Avícola San Pedro Postura</t>
-  </si>
-  <si>
-    <t>Almacen Recolección SJ Postura 1</t>
-  </si>
-  <si>
-    <t>Almacen Recolección SJ Postura 2</t>
-  </si>
-  <si>
-    <t>Almacen Recolección SJ Postura 3</t>
-  </si>
-  <si>
-    <t>Almacen Recolección SJ Postura 5</t>
-  </si>
-  <si>
-    <t>Almacen Recolección SJ Postura 6</t>
-  </si>
-  <si>
-    <t>Almacen Recolección SP Postura 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,11 +149,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -210,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,6 +287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,14 +480,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,74 +531,62 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>26228.75912408759</v>
+        <v>26228.759124087592</v>
       </c>
       <c r="D2">
-        <v>1614.222372262774</v>
+        <v>1614.2223722627739</v>
       </c>
       <c r="E2">
-        <v>3.372262773722628</v>
+        <v>3.3722627737226278</v>
       </c>
       <c r="F2">
         <v>13830.84186638597</v>
       </c>
       <c r="G2">
-        <v>859.6730217097216</v>
+        <v>859.67302170972164</v>
       </c>
       <c r="H2">
-        <v>10.28317541874113</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
+        <v>10.283175418741131</v>
+      </c>
+      <c r="I2">
+        <v>11880</v>
       </c>
       <c r="J2">
-        <v>11880</v>
+        <v>554.33000000000004</v>
       </c>
       <c r="K2">
-        <v>554.33</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+        <v>87480</v>
+      </c>
+      <c r="M2">
+        <v>5304.9900000000007</v>
       </c>
       <c r="N2">
-        <v>87480</v>
-      </c>
-      <c r="O2">
-        <v>5304.990000000001</v>
-      </c>
-      <c r="P2">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>23972.33532934132</v>
@@ -569,98 +595,86 @@
         <v>1512.756856287426</v>
       </c>
       <c r="E3">
-        <v>3.275449101796407</v>
+        <v>3.2754491017964069</v>
       </c>
       <c r="F3">
-        <v>13959.37774266072</v>
+        <v>13959.377742660719</v>
       </c>
       <c r="G3">
         <v>871.5526096456698</v>
       </c>
       <c r="H3">
-        <v>6.401637056637084</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
+        <v>6.4016370566370844</v>
+      </c>
+      <c r="I3">
+        <v>360</v>
       </c>
       <c r="J3">
-        <v>360</v>
+        <v>546.63</v>
       </c>
       <c r="K3">
-        <v>546.63</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
+        <v>83160</v>
+      </c>
+      <c r="M3">
+        <v>5254.8</v>
       </c>
       <c r="N3">
-        <v>83160</v>
-      </c>
-      <c r="O3">
-        <v>5254.8</v>
-      </c>
-      <c r="P3">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>22143.9225181598</v>
+        <v>22143.922518159801</v>
       </c>
       <c r="D4">
-        <v>1370.764891041162</v>
+        <v>1370.7648910411619</v>
       </c>
       <c r="E4">
-        <v>2.648910411622276</v>
+        <v>2.6489104116222761</v>
       </c>
       <c r="F4">
         <v>13342.57180758582</v>
       </c>
       <c r="G4">
-        <v>797.4151231111125</v>
+        <v>797.41512311111251</v>
       </c>
       <c r="H4">
-        <v>7.414249598636838</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
+        <v>7.4142495986368377</v>
+      </c>
+      <c r="I4">
+        <v>8640</v>
       </c>
       <c r="J4">
-        <v>8640</v>
+        <v>434.6</v>
       </c>
       <c r="K4">
-        <v>434.6</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
+        <v>92160</v>
+      </c>
+      <c r="M4">
+        <v>5582.3499999999995</v>
       </c>
       <c r="N4">
-        <v>92160</v>
-      </c>
-      <c r="O4">
-        <v>5582.349999999999</v>
-      </c>
-      <c r="P4">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>22775</v>
@@ -669,51 +683,45 @@
         <v>1425.764675925926</v>
       </c>
       <c r="E5">
-        <v>4.81712962962963</v>
+        <v>4.8171296296296298</v>
       </c>
       <c r="F5">
         <v>12817.56904027</v>
       </c>
       <c r="G5">
-        <v>794.7016751210898</v>
+        <v>794.70167512108981</v>
       </c>
       <c r="H5">
         <v>46.72967511679748</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
+      <c r="I5">
+        <v>9720</v>
       </c>
       <c r="J5">
-        <v>9720</v>
+        <v>578</v>
       </c>
       <c r="K5">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
+        <v>98280</v>
+      </c>
+      <c r="M5">
+        <v>5845.65</v>
       </c>
       <c r="N5">
-        <v>98280</v>
-      </c>
-      <c r="O5">
-        <v>5845.65</v>
-      </c>
-      <c r="P5">
         <v>966</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>22730.41769041769</v>
+        <v>22730.417690417689</v>
       </c>
       <c r="D6">
         <v>1424.199926289926</v>
@@ -722,51 +730,45 @@
         <v>2.697788697788698</v>
       </c>
       <c r="F6">
-        <v>11512.9183202501</v>
+        <v>11512.918320250101</v>
       </c>
       <c r="G6">
-        <v>715.2114517945531</v>
+        <v>715.21145179455311</v>
       </c>
       <c r="H6">
-        <v>4.979224821913806</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
+        <v>4.9792248219138058</v>
+      </c>
+      <c r="I6">
+        <v>360</v>
       </c>
       <c r="J6">
-        <v>360</v>
+        <v>653.85</v>
       </c>
       <c r="K6">
-        <v>653.85</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
+        <v>60480</v>
+      </c>
+      <c r="M6">
+        <v>4024.76</v>
       </c>
       <c r="N6">
-        <v>60480</v>
-      </c>
-      <c r="O6">
-        <v>4024.76</v>
-      </c>
-      <c r="P6">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>23783.07692307692</v>
+        <v>23783.076923076918</v>
       </c>
       <c r="D7">
-        <v>1430.474692307692</v>
+        <v>1430.4746923076921</v>
       </c>
       <c r="E7">
         <v>2.641025641025641</v>
@@ -775,48 +777,42 @@
         <v>12181.87708547773</v>
       </c>
       <c r="G7">
-        <v>732.9926268687788</v>
+        <v>732.99262686877876</v>
       </c>
       <c r="H7">
-        <v>4.989382966869386</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
+        <v>4.9893829668693863</v>
+      </c>
+      <c r="I7">
+        <v>11160</v>
       </c>
       <c r="J7">
-        <v>11160</v>
+        <v>568.5</v>
       </c>
       <c r="K7">
-        <v>568.5</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
+        <v>88920</v>
+      </c>
+      <c r="M7">
+        <v>5523.57</v>
       </c>
       <c r="N7">
-        <v>88920</v>
-      </c>
-      <c r="O7">
-        <v>5523.57</v>
-      </c>
-      <c r="P7">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>21247.74193548387</v>
+        <v>21247.741935483871</v>
       </c>
       <c r="D8">
-        <v>1349.124623655914</v>
+        <v>1349.1246236559141</v>
       </c>
       <c r="E8">
         <v>10.97849462365591</v>
@@ -825,33 +821,27 @@
         <v>4047.948522032691</v>
       </c>
       <c r="G8">
-        <v>241.7093742023725</v>
+        <v>241.70937420237249</v>
       </c>
       <c r="H8">
         <v>10.0184378876754</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
+      <c r="I8">
+        <v>12960</v>
       </c>
       <c r="J8">
-        <v>12960</v>
+        <v>857.78</v>
       </c>
       <c r="K8">
-        <v>857.78</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
+        <v>30960</v>
+      </c>
+      <c r="M8">
+        <v>1741.9</v>
       </c>
       <c r="N8">
-        <v>30960</v>
-      </c>
-      <c r="O8">
-        <v>1741.9</v>
-      </c>
-      <c r="P8">
         <v>63</v>
       </c>
     </row>
